--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200327.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200327.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB44A91-1A4D-4D21-8E2E-1ED230636E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="11310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -383,7 +389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10009" uniqueCount="3305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10010" uniqueCount="3306">
   <si>
     <t>序号</t>
   </si>
@@ -10310,20 +10316,20 @@
   <si>
     <t>吉木乃县</t>
   </si>
+  <si>
+    <t>区县级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10408,149 +10414,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10569,194 +10439,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10764,251 +10448,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11043,14 +10488,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11068,7 +10513,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11076,62 +10521,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11389,55 +10792,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.0625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="8.9375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.46875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.46875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="5.0625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="15" customWidth="1"/>
     <col min="6" max="6" width="7" style="15" customWidth="1"/>
     <col min="7" max="7" width="7" style="13" customWidth="1"/>
-    <col min="8" max="8" width="10.9375" style="15" customWidth="1"/>
-    <col min="9" max="13" width="12.9375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="12.9375" style="15" customWidth="1"/>
-    <col min="15" max="16" width="12.9375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="8.9375" style="13" customWidth="1"/>
-    <col min="18" max="19" width="12.9375" style="13" customWidth="1"/>
-    <col min="20" max="20" width="18.0625" style="14" customWidth="1"/>
-    <col min="21" max="22" width="10.9375" style="13" customWidth="1"/>
-    <col min="23" max="24" width="17.0625" style="13" customWidth="1"/>
-    <col min="25" max="25" width="21.234375" style="13" customWidth="1"/>
-    <col min="26" max="26" width="15.703125" style="13" customWidth="1"/>
-    <col min="27" max="27" width="12.9375" style="13" customWidth="1"/>
-    <col min="28" max="28" width="22.234375" style="13" customWidth="1"/>
-    <col min="29" max="29" width="12.9375" style="13" customWidth="1"/>
-    <col min="30" max="31" width="17.0625" style="13" customWidth="1"/>
-    <col min="32" max="32" width="26.3515625" style="13" customWidth="1"/>
-    <col min="33" max="33" width="17.0625" style="13" customWidth="1"/>
-    <col min="34" max="35" width="8.9375" style="13" customWidth="1"/>
-    <col min="36" max="37" width="17.0625" style="13" customWidth="1"/>
-    <col min="38" max="38" width="26.3515625" style="13" customWidth="1"/>
-    <col min="39" max="39" width="17.0625" style="13" customWidth="1"/>
-    <col min="40" max="40" width="5.0625" style="13" customWidth="1"/>
-    <col min="41" max="16384" width="10.9375" style="13"/>
+    <col min="8" max="8" width="10.90625" style="15" customWidth="1"/>
+    <col min="9" max="13" width="12.90625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" style="15" customWidth="1"/>
+    <col min="15" max="16" width="12.90625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="13" customWidth="1"/>
+    <col min="18" max="19" width="12.90625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="18.08984375" style="14" customWidth="1"/>
+    <col min="21" max="22" width="10.90625" style="13" customWidth="1"/>
+    <col min="23" max="24" width="17.08984375" style="13" customWidth="1"/>
+    <col min="25" max="25" width="21.26953125" style="13" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" style="13" customWidth="1"/>
+    <col min="27" max="27" width="12.90625" style="13" customWidth="1"/>
+    <col min="28" max="28" width="22.26953125" style="13" customWidth="1"/>
+    <col min="29" max="29" width="12.90625" style="13" customWidth="1"/>
+    <col min="30" max="31" width="17.08984375" style="13" customWidth="1"/>
+    <col min="32" max="32" width="26.36328125" style="13" customWidth="1"/>
+    <col min="33" max="33" width="17.08984375" style="13" customWidth="1"/>
+    <col min="34" max="35" width="8.90625" style="13" customWidth="1"/>
+    <col min="36" max="37" width="17.08984375" style="13" customWidth="1"/>
+    <col min="38" max="38" width="26.36328125" style="13" customWidth="1"/>
+    <col min="39" max="39" width="17.08984375" style="13" customWidth="1"/>
+    <col min="40" max="40" width="5.08984375" style="13" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" customHeight="1" spans="1:40">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11559,7 +10961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="2" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -11602,7 +11004,7 @@
         <v>43</v>
       </c>
       <c r="T2" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U2" s="22" t="s">
         <v>44</v>
@@ -11614,7 +11016,7 @@
       <c r="X2" s="25"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>46</v>
@@ -11635,7 +11037,7 @@
       <c r="AM2" s="25"/>
       <c r="AN2" s="25"/>
     </row>
-    <row r="3" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="3" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -11676,7 +11078,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U3" s="22" t="s">
         <v>44</v>
@@ -11688,7 +11090,7 @@
       <c r="X3" s="25"/>
       <c r="Y3" s="25"/>
       <c r="Z3" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>46</v>
@@ -11709,7 +11111,7 @@
       <c r="AM3" s="25"/>
       <c r="AN3" s="25"/>
     </row>
-    <row r="4" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="4" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -11752,7 +11154,7 @@
         <v>43</v>
       </c>
       <c r="T4" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U4" s="22" t="s">
         <v>44</v>
@@ -11764,7 +11166,7 @@
       <c r="X4" s="25"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA4" s="15" t="s">
         <v>46</v>
@@ -11785,7 +11187,7 @@
       <c r="AM4" s="25"/>
       <c r="AN4" s="25"/>
     </row>
-    <row r="5" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="5" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -11828,7 +11230,7 @@
         <v>43</v>
       </c>
       <c r="T5" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U5" s="22" t="s">
         <v>44</v>
@@ -11840,7 +11242,7 @@
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA5" s="15" t="s">
         <v>46</v>
@@ -11861,7 +11263,7 @@
       <c r="AM5" s="25"/>
       <c r="AN5" s="25"/>
     </row>
-    <row r="6" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="6" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -11904,7 +11306,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U6" s="22" t="s">
         <v>44</v>
@@ -11916,7 +11318,7 @@
       <c r="X6" s="25"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA6" s="15" t="s">
         <v>46</v>
@@ -11937,7 +11339,7 @@
       <c r="AM6" s="25"/>
       <c r="AN6" s="25"/>
     </row>
-    <row r="7" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="7" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -11980,7 +11382,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U7" s="22" t="s">
         <v>44</v>
@@ -11992,7 +11394,7 @@
       <c r="X7" s="25"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA7" s="15" t="s">
         <v>46</v>
@@ -12013,7 +11415,7 @@
       <c r="AM7" s="25"/>
       <c r="AN7" s="25"/>
     </row>
-    <row r="8" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -12056,7 +11458,7 @@
         <v>43</v>
       </c>
       <c r="T8" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U8" s="22" t="s">
         <v>44</v>
@@ -12068,7 +11470,7 @@
       <c r="X8" s="25"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA8" s="15" t="s">
         <v>46</v>
@@ -12089,7 +11491,7 @@
       <c r="AM8" s="25"/>
       <c r="AN8" s="25"/>
     </row>
-    <row r="9" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -12132,7 +11534,7 @@
         <v>43</v>
       </c>
       <c r="T9" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U9" s="22" t="s">
         <v>44</v>
@@ -12144,7 +11546,7 @@
       <c r="X9" s="25"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA9" s="15" t="s">
         <v>46</v>
@@ -12165,7 +11567,7 @@
       <c r="AM9" s="25"/>
       <c r="AN9" s="25"/>
     </row>
-    <row r="10" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -12206,7 +11608,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U10" s="22" t="s">
         <v>44</v>
@@ -12218,7 +11620,7 @@
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA10" s="15" t="s">
         <v>46</v>
@@ -12239,7 +11641,7 @@
       <c r="AM10" s="25"/>
       <c r="AN10" s="25"/>
     </row>
-    <row r="11" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -12282,7 +11684,7 @@
         <v>43</v>
       </c>
       <c r="T11" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U11" s="22" t="s">
         <v>44</v>
@@ -12294,7 +11696,7 @@
       <c r="X11" s="25"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA11" s="15" t="s">
         <v>46</v>
@@ -12315,7 +11717,7 @@
       <c r="AM11" s="25"/>
       <c r="AN11" s="25"/>
     </row>
-    <row r="12" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -12358,7 +11760,7 @@
         <v>43</v>
       </c>
       <c r="T12" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U12" s="22" t="s">
         <v>44</v>
@@ -12370,7 +11772,7 @@
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA12" s="15" t="s">
         <v>46</v>
@@ -12391,7 +11793,7 @@
       <c r="AM12" s="25"/>
       <c r="AN12" s="25"/>
     </row>
-    <row r="13" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -12434,7 +11836,7 @@
         <v>43</v>
       </c>
       <c r="T13" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U13" s="22" t="s">
         <v>44</v>
@@ -12446,7 +11848,7 @@
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA13" s="15" t="s">
         <v>46</v>
@@ -12467,7 +11869,7 @@
       <c r="AM13" s="25"/>
       <c r="AN13" s="25"/>
     </row>
-    <row r="14" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -12510,7 +11912,7 @@
         <v>43</v>
       </c>
       <c r="T14" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U14" s="22" t="s">
         <v>44</v>
@@ -12522,7 +11924,7 @@
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA14" s="15" t="s">
         <v>46</v>
@@ -12543,7 +11945,7 @@
       <c r="AM14" s="25"/>
       <c r="AN14" s="25"/>
     </row>
-    <row r="15" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -12586,7 +11988,7 @@
         <v>43</v>
       </c>
       <c r="T15" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U15" s="22" t="s">
         <v>44</v>
@@ -12598,7 +12000,7 @@
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA15" s="15" t="s">
         <v>46</v>
@@ -12619,7 +12021,7 @@
       <c r="AM15" s="25"/>
       <c r="AN15" s="25"/>
     </row>
-    <row r="16" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -12662,7 +12064,7 @@
         <v>43</v>
       </c>
       <c r="T16" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U16" s="22" t="s">
         <v>44</v>
@@ -12674,7 +12076,7 @@
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA16" s="15" t="s">
         <v>46</v>
@@ -12695,7 +12097,7 @@
       <c r="AM16" s="25"/>
       <c r="AN16" s="25"/>
     </row>
-    <row r="17" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="17" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -12738,7 +12140,7 @@
         <v>43</v>
       </c>
       <c r="T17" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U17" s="22" t="s">
         <v>44</v>
@@ -12750,7 +12152,7 @@
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
       <c r="Z17" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA17" s="15" t="s">
         <v>46</v>
@@ -12771,7 +12173,7 @@
       <c r="AM17" s="25"/>
       <c r="AN17" s="25"/>
     </row>
-    <row r="18" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="18" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -12814,7 +12216,7 @@
         <v>43</v>
       </c>
       <c r="T18" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U18" s="22" t="s">
         <v>44</v>
@@ -12826,7 +12228,7 @@
       <c r="X18" s="25"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA18" s="15" t="s">
         <v>46</v>
@@ -12847,7 +12249,7 @@
       <c r="AM18" s="25"/>
       <c r="AN18" s="25"/>
     </row>
-    <row r="19" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="19" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -12888,7 +12290,7 @@
         <v>43</v>
       </c>
       <c r="T19" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U19" s="22" t="s">
         <v>44</v>
@@ -12900,7 +12302,7 @@
       <c r="X19" s="25"/>
       <c r="Y19" s="25"/>
       <c r="Z19" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA19" s="15" t="s">
         <v>46</v>
@@ -12921,7 +12323,7 @@
       <c r="AM19" s="25"/>
       <c r="AN19" s="25"/>
     </row>
-    <row r="20" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="20" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -12964,7 +12366,7 @@
         <v>43</v>
       </c>
       <c r="T20" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U20" s="22" t="s">
         <v>44</v>
@@ -12976,7 +12378,7 @@
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA20" s="15" t="s">
         <v>46</v>
@@ -12997,7 +12399,7 @@
       <c r="AM20" s="25"/>
       <c r="AN20" s="25"/>
     </row>
-    <row r="21" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="21" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -13040,7 +12442,7 @@
         <v>43</v>
       </c>
       <c r="T21" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U21" s="22" t="s">
         <v>44</v>
@@ -13052,7 +12454,7 @@
       <c r="X21" s="25"/>
       <c r="Y21" s="25"/>
       <c r="Z21" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA21" s="15" t="s">
         <v>46</v>
@@ -13073,7 +12475,7 @@
       <c r="AM21" s="25"/>
       <c r="AN21" s="25"/>
     </row>
-    <row r="22" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="22" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -13116,7 +12518,7 @@
         <v>43</v>
       </c>
       <c r="T22" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U22" s="22" t="s">
         <v>44</v>
@@ -13128,7 +12530,7 @@
       <c r="X22" s="25"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA22" s="15" t="s">
         <v>46</v>
@@ -13149,7 +12551,7 @@
       <c r="AM22" s="25"/>
       <c r="AN22" s="25"/>
     </row>
-    <row r="23" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="23" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -13192,7 +12594,7 @@
         <v>43</v>
       </c>
       <c r="T23" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U23" s="22" t="s">
         <v>44</v>
@@ -13204,7 +12606,7 @@
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
       <c r="Z23" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA23" s="15" t="s">
         <v>46</v>
@@ -13225,7 +12627,7 @@
       <c r="AM23" s="25"/>
       <c r="AN23" s="25"/>
     </row>
-    <row r="24" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="24" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -13268,7 +12670,7 @@
         <v>43</v>
       </c>
       <c r="T24" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U24" s="22" t="s">
         <v>44</v>
@@ -13280,7 +12682,7 @@
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA24" s="15" t="s">
         <v>46</v>
@@ -13301,7 +12703,7 @@
       <c r="AM24" s="25"/>
       <c r="AN24" s="25"/>
     </row>
-    <row r="25" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="25" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -13344,7 +12746,7 @@
         <v>43</v>
       </c>
       <c r="T25" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U25" s="22" t="s">
         <v>44</v>
@@ -13356,7 +12758,7 @@
       <c r="X25" s="25"/>
       <c r="Y25" s="25"/>
       <c r="Z25" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA25" s="15" t="s">
         <v>46</v>
@@ -13377,7 +12779,7 @@
       <c r="AM25" s="25"/>
       <c r="AN25" s="25"/>
     </row>
-    <row r="26" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="26" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -13420,7 +12822,7 @@
         <v>43</v>
       </c>
       <c r="T26" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U26" s="22" t="s">
         <v>44</v>
@@ -13432,7 +12834,7 @@
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA26" s="15" t="s">
         <v>46</v>
@@ -13453,7 +12855,7 @@
       <c r="AM26" s="25"/>
       <c r="AN26" s="25"/>
     </row>
-    <row r="27" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="27" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -13496,7 +12898,7 @@
         <v>43</v>
       </c>
       <c r="T27" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U27" s="22" t="s">
         <v>44</v>
@@ -13508,7 +12910,7 @@
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA27" s="15" t="s">
         <v>46</v>
@@ -13529,7 +12931,7 @@
       <c r="AM27" s="25"/>
       <c r="AN27" s="25"/>
     </row>
-    <row r="28" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="28" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -13572,7 +12974,7 @@
         <v>43</v>
       </c>
       <c r="T28" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U28" s="22" t="s">
         <v>44</v>
@@ -13584,7 +12986,7 @@
       <c r="X28" s="25"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA28" s="15" t="s">
         <v>46</v>
@@ -13605,7 +13007,7 @@
       <c r="AM28" s="25"/>
       <c r="AN28" s="25"/>
     </row>
-    <row r="29" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="29" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -13646,7 +13048,7 @@
         <v>43</v>
       </c>
       <c r="T29" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U29" s="22" t="s">
         <v>44</v>
@@ -13658,7 +13060,7 @@
       <c r="X29" s="25"/>
       <c r="Y29" s="25"/>
       <c r="Z29" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA29" s="15" t="s">
         <v>46</v>
@@ -13679,7 +13081,7 @@
       <c r="AM29" s="25"/>
       <c r="AN29" s="25"/>
     </row>
-    <row r="30" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="30" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -13722,7 +13124,7 @@
         <v>43</v>
       </c>
       <c r="T30" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U30" s="22" t="s">
         <v>44</v>
@@ -13734,7 +13136,7 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="25"/>
       <c r="Z30" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA30" s="15" t="s">
         <v>46</v>
@@ -13755,7 +13157,7 @@
       <c r="AM30" s="25"/>
       <c r="AN30" s="25"/>
     </row>
-    <row r="31" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="31" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -13798,7 +13200,7 @@
         <v>43</v>
       </c>
       <c r="T31" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U31" s="22" t="s">
         <v>44</v>
@@ -13810,7 +13212,7 @@
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
       <c r="Z31" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA31" s="15" t="s">
         <v>46</v>
@@ -13831,7 +13233,7 @@
       <c r="AM31" s="25"/>
       <c r="AN31" s="25"/>
     </row>
-    <row r="32" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="32" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -13874,7 +13276,7 @@
         <v>43</v>
       </c>
       <c r="T32" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U32" s="22" t="s">
         <v>44</v>
@@ -13886,7 +13288,7 @@
       <c r="X32" s="25"/>
       <c r="Y32" s="25"/>
       <c r="Z32" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA32" s="15" t="s">
         <v>46</v>
@@ -13907,7 +13309,7 @@
       <c r="AM32" s="25"/>
       <c r="AN32" s="25"/>
     </row>
-    <row r="33" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="33" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -13950,7 +13352,7 @@
         <v>43</v>
       </c>
       <c r="T33" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U33" s="22" t="s">
         <v>44</v>
@@ -13962,7 +13364,7 @@
       <c r="X33" s="25"/>
       <c r="Y33" s="25"/>
       <c r="Z33" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA33" s="15" t="s">
         <v>46</v>
@@ -13983,7 +13385,7 @@
       <c r="AM33" s="25"/>
       <c r="AN33" s="25"/>
     </row>
-    <row r="34" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="34" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -14026,7 +13428,7 @@
         <v>43</v>
       </c>
       <c r="T34" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U34" s="22" t="s">
         <v>44</v>
@@ -14038,7 +13440,7 @@
       <c r="X34" s="25"/>
       <c r="Y34" s="25"/>
       <c r="Z34" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA34" s="15" t="s">
         <v>46</v>
@@ -14059,7 +13461,7 @@
       <c r="AM34" s="25"/>
       <c r="AN34" s="25"/>
     </row>
-    <row r="35" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="35" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -14102,7 +13504,7 @@
         <v>43</v>
       </c>
       <c r="T35" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U35" s="22" t="s">
         <v>44</v>
@@ -14114,7 +13516,7 @@
       <c r="X35" s="25"/>
       <c r="Y35" s="25"/>
       <c r="Z35" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA35" s="15" t="s">
         <v>46</v>
@@ -14135,7 +13537,7 @@
       <c r="AM35" s="25"/>
       <c r="AN35" s="25"/>
     </row>
-    <row r="36" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="36" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -14178,7 +13580,7 @@
         <v>43</v>
       </c>
       <c r="T36" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U36" s="22" t="s">
         <v>44</v>
@@ -14190,7 +13592,7 @@
       <c r="X36" s="25"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA36" s="15" t="s">
         <v>46</v>
@@ -14211,7 +13613,7 @@
       <c r="AM36" s="25"/>
       <c r="AN36" s="25"/>
     </row>
-    <row r="37" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="37" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -14254,7 +13656,7 @@
         <v>43</v>
       </c>
       <c r="T37" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U37" s="22" t="s">
         <v>44</v>
@@ -14266,7 +13668,7 @@
       <c r="X37" s="25"/>
       <c r="Y37" s="25"/>
       <c r="Z37" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA37" s="15" t="s">
         <v>46</v>
@@ -14287,7 +13689,7 @@
       <c r="AM37" s="25"/>
       <c r="AN37" s="25"/>
     </row>
-    <row r="38" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="38" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -14330,7 +13732,7 @@
         <v>43</v>
       </c>
       <c r="T38" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U38" s="22" t="s">
         <v>44</v>
@@ -14342,7 +13744,7 @@
       <c r="X38" s="25"/>
       <c r="Y38" s="25"/>
       <c r="Z38" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA38" s="15" t="s">
         <v>46</v>
@@ -14363,7 +13765,7 @@
       <c r="AM38" s="25"/>
       <c r="AN38" s="25"/>
     </row>
-    <row r="39" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="39" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -14406,7 +13808,7 @@
         <v>43</v>
       </c>
       <c r="T39" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U39" s="22" t="s">
         <v>44</v>
@@ -14418,7 +13820,7 @@
       <c r="X39" s="25"/>
       <c r="Y39" s="25"/>
       <c r="Z39" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA39" s="15" t="s">
         <v>46</v>
@@ -14439,7 +13841,7 @@
       <c r="AM39" s="25"/>
       <c r="AN39" s="25"/>
     </row>
-    <row r="40" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="40" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -14482,7 +13884,7 @@
         <v>43</v>
       </c>
       <c r="T40" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U40" s="22" t="s">
         <v>44</v>
@@ -14494,7 +13896,7 @@
       <c r="X40" s="25"/>
       <c r="Y40" s="25"/>
       <c r="Z40" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA40" s="15" t="s">
         <v>46</v>
@@ -14515,7 +13917,7 @@
       <c r="AM40" s="25"/>
       <c r="AN40" s="25"/>
     </row>
-    <row r="41" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="41" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -14558,7 +13960,7 @@
         <v>43</v>
       </c>
       <c r="T41" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U41" s="22" t="s">
         <v>44</v>
@@ -14570,7 +13972,7 @@
       <c r="X41" s="25"/>
       <c r="Y41" s="25"/>
       <c r="Z41" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA41" s="15" t="s">
         <v>46</v>
@@ -14591,7 +13993,7 @@
       <c r="AM41" s="25"/>
       <c r="AN41" s="25"/>
     </row>
-    <row r="42" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="42" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -14634,7 +14036,7 @@
         <v>43</v>
       </c>
       <c r="T42" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U42" s="22" t="s">
         <v>44</v>
@@ -14646,7 +14048,7 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA42" s="15" t="s">
         <v>46</v>
@@ -14667,7 +14069,7 @@
       <c r="AM42" s="25"/>
       <c r="AN42" s="25"/>
     </row>
-    <row r="43" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="43" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -14712,7 +14114,7 @@
         <v>43</v>
       </c>
       <c r="T43" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U43" s="22" t="s">
         <v>44</v>
@@ -14724,7 +14126,7 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
       <c r="Z43" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA43" s="15" t="s">
         <v>46</v>
@@ -14745,7 +14147,7 @@
       <c r="AM43" s="25"/>
       <c r="AN43" s="25"/>
     </row>
-    <row r="44" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="44" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -14788,7 +14190,7 @@
         <v>43</v>
       </c>
       <c r="T44" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U44" s="22" t="s">
         <v>44</v>
@@ -14800,7 +14202,7 @@
       <c r="X44" s="25"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA44" s="15" t="s">
         <v>46</v>
@@ -14821,7 +14223,7 @@
       <c r="AM44" s="25"/>
       <c r="AN44" s="25"/>
     </row>
-    <row r="45" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="45" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -14864,7 +14266,7 @@
         <v>43</v>
       </c>
       <c r="T45" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U45" s="22" t="s">
         <v>44</v>
@@ -14876,7 +14278,7 @@
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
       <c r="Z45" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA45" s="15" t="s">
         <v>46</v>
@@ -14897,7 +14299,7 @@
       <c r="AM45" s="25"/>
       <c r="AN45" s="25"/>
     </row>
-    <row r="46" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="46" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -14940,7 +14342,7 @@
         <v>43</v>
       </c>
       <c r="T46" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U46" s="22" t="s">
         <v>44</v>
@@ -14952,7 +14354,7 @@
       <c r="X46" s="25"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA46" s="15" t="s">
         <v>46</v>
@@ -14973,7 +14375,7 @@
       <c r="AM46" s="25"/>
       <c r="AN46" s="25"/>
     </row>
-    <row r="47" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="47" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -15016,7 +14418,7 @@
         <v>43</v>
       </c>
       <c r="T47" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U47" s="22" t="s">
         <v>44</v>
@@ -15028,7 +14430,7 @@
       <c r="X47" s="25"/>
       <c r="Y47" s="25"/>
       <c r="Z47" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA47" s="15" t="s">
         <v>46</v>
@@ -15049,7 +14451,7 @@
       <c r="AM47" s="25"/>
       <c r="AN47" s="25"/>
     </row>
-    <row r="48" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="48" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -15092,7 +14494,7 @@
         <v>43</v>
       </c>
       <c r="T48" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U48" s="22" t="s">
         <v>44</v>
@@ -15104,7 +14506,7 @@
       <c r="X48" s="25"/>
       <c r="Y48" s="25"/>
       <c r="Z48" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA48" s="15" t="s">
         <v>46</v>
@@ -15125,7 +14527,7 @@
       <c r="AM48" s="25"/>
       <c r="AN48" s="25"/>
     </row>
-    <row r="49" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="49" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -15168,7 +14570,7 @@
         <v>43</v>
       </c>
       <c r="T49" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U49" s="22" t="s">
         <v>44</v>
@@ -15180,7 +14582,7 @@
       <c r="X49" s="25"/>
       <c r="Y49" s="25"/>
       <c r="Z49" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA49" s="15" t="s">
         <v>46</v>
@@ -15201,7 +14603,7 @@
       <c r="AM49" s="25"/>
       <c r="AN49" s="25"/>
     </row>
-    <row r="50" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="50" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -15244,7 +14646,7 @@
         <v>43</v>
       </c>
       <c r="T50" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U50" s="22" t="s">
         <v>44</v>
@@ -15256,7 +14658,7 @@
       <c r="X50" s="25"/>
       <c r="Y50" s="25"/>
       <c r="Z50" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA50" s="15" t="s">
         <v>46</v>
@@ -15277,7 +14679,7 @@
       <c r="AM50" s="25"/>
       <c r="AN50" s="25"/>
     </row>
-    <row r="51" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="51" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -15320,7 +14722,7 @@
         <v>43</v>
       </c>
       <c r="T51" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U51" s="22" t="s">
         <v>44</v>
@@ -15332,7 +14734,7 @@
       <c r="X51" s="25"/>
       <c r="Y51" s="25"/>
       <c r="Z51" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA51" s="15" t="s">
         <v>46</v>
@@ -15353,7 +14755,7 @@
       <c r="AM51" s="25"/>
       <c r="AN51" s="25"/>
     </row>
-    <row r="52" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="52" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -15394,7 +14796,7 @@
         <v>43</v>
       </c>
       <c r="T52" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U52" s="22" t="s">
         <v>44</v>
@@ -15406,7 +14808,7 @@
       <c r="X52" s="25"/>
       <c r="Y52" s="25"/>
       <c r="Z52" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA52" s="15" t="s">
         <v>46</v>
@@ -15427,7 +14829,7 @@
       <c r="AM52" s="25"/>
       <c r="AN52" s="25"/>
     </row>
-    <row r="53" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="53" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -15435,7 +14837,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D53" s="19">
         <v>43917</v>
@@ -15470,7 +14872,7 @@
         <v>43</v>
       </c>
       <c r="T53" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U53" s="22" t="s">
         <v>44</v>
@@ -15482,7 +14884,7 @@
       <c r="X53" s="25"/>
       <c r="Y53" s="25"/>
       <c r="Z53" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA53" s="15" t="s">
         <v>46</v>
@@ -15503,7 +14905,7 @@
       <c r="AM53" s="25"/>
       <c r="AN53" s="25"/>
     </row>
-    <row r="54" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="54" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -15511,7 +14913,7 @@
         <v>50</v>
       </c>
       <c r="C54" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D54" s="19">
         <v>43917</v>
@@ -15546,7 +14948,7 @@
         <v>43</v>
       </c>
       <c r="T54" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U54" s="22" t="s">
         <v>44</v>
@@ -15558,7 +14960,7 @@
       <c r="X54" s="25"/>
       <c r="Y54" s="25"/>
       <c r="Z54" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA54" s="15" t="s">
         <v>46</v>
@@ -15579,7 +14981,7 @@
       <c r="AM54" s="25"/>
       <c r="AN54" s="25"/>
     </row>
-    <row r="55" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="55" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -15587,7 +14989,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D55" s="19">
         <v>43917</v>
@@ -15622,7 +15024,7 @@
         <v>43</v>
       </c>
       <c r="T55" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U55" s="22" t="s">
         <v>44</v>
@@ -15634,7 +15036,7 @@
       <c r="X55" s="25"/>
       <c r="Y55" s="25"/>
       <c r="Z55" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA55" s="15" t="s">
         <v>46</v>
@@ -15655,7 +15057,7 @@
       <c r="AM55" s="25"/>
       <c r="AN55" s="25"/>
     </row>
-    <row r="56" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="56" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -15663,7 +15065,7 @@
         <v>50</v>
       </c>
       <c r="C56" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D56" s="19">
         <v>43917</v>
@@ -15698,7 +15100,7 @@
         <v>43</v>
       </c>
       <c r="T56" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U56" s="22" t="s">
         <v>44</v>
@@ -15710,7 +15112,7 @@
       <c r="X56" s="25"/>
       <c r="Y56" s="25"/>
       <c r="Z56" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA56" s="15" t="s">
         <v>46</v>
@@ -15731,7 +15133,7 @@
       <c r="AM56" s="25"/>
       <c r="AN56" s="25"/>
     </row>
-    <row r="57" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="57" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -15739,7 +15141,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D57" s="19">
         <v>43917</v>
@@ -15774,7 +15176,7 @@
         <v>43</v>
       </c>
       <c r="T57" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U57" s="22" t="s">
         <v>44</v>
@@ -15786,7 +15188,7 @@
       <c r="X57" s="25"/>
       <c r="Y57" s="25"/>
       <c r="Z57" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA57" s="15" t="s">
         <v>46</v>
@@ -15807,7 +15209,7 @@
       <c r="AM57" s="25"/>
       <c r="AN57" s="25"/>
     </row>
-    <row r="58" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="58" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -15815,7 +15217,7 @@
         <v>50</v>
       </c>
       <c r="C58" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D58" s="19">
         <v>43917</v>
@@ -15850,7 +15252,7 @@
         <v>43</v>
       </c>
       <c r="T58" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U58" s="22" t="s">
         <v>44</v>
@@ -15862,7 +15264,7 @@
       <c r="X58" s="25"/>
       <c r="Y58" s="25"/>
       <c r="Z58" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA58" s="15" t="s">
         <v>46</v>
@@ -15883,7 +15285,7 @@
       <c r="AM58" s="25"/>
       <c r="AN58" s="25"/>
     </row>
-    <row r="59" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="59" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -15891,7 +15293,7 @@
         <v>48</v>
       </c>
       <c r="C59" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D59" s="19">
         <v>43917</v>
@@ -15924,7 +15326,7 @@
         <v>43</v>
       </c>
       <c r="T59" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U59" s="22" t="s">
         <v>44</v>
@@ -15936,7 +15338,7 @@
       <c r="X59" s="25"/>
       <c r="Y59" s="25"/>
       <c r="Z59" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA59" s="15" t="s">
         <v>46</v>
@@ -15957,7 +15359,7 @@
       <c r="AM59" s="25"/>
       <c r="AN59" s="25"/>
     </row>
-    <row r="60" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="60" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -15965,7 +15367,7 @@
         <v>50</v>
       </c>
       <c r="C60" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D60" s="19">
         <v>43917</v>
@@ -16000,7 +15402,7 @@
         <v>43</v>
       </c>
       <c r="T60" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U60" s="22" t="s">
         <v>44</v>
@@ -16012,7 +15414,7 @@
       <c r="X60" s="25"/>
       <c r="Y60" s="25"/>
       <c r="Z60" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA60" s="15" t="s">
         <v>46</v>
@@ -16033,7 +15435,7 @@
       <c r="AM60" s="25"/>
       <c r="AN60" s="25"/>
     </row>
-    <row r="61" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="61" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -16041,7 +15443,7 @@
         <v>50</v>
       </c>
       <c r="C61" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D61" s="19">
         <v>43917</v>
@@ -16076,7 +15478,7 @@
         <v>43</v>
       </c>
       <c r="T61" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U61" s="22" t="s">
         <v>44</v>
@@ -16088,7 +15490,7 @@
       <c r="X61" s="25"/>
       <c r="Y61" s="25"/>
       <c r="Z61" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA61" s="15" t="s">
         <v>46</v>
@@ -16109,7 +15511,7 @@
       <c r="AM61" s="25"/>
       <c r="AN61" s="25"/>
     </row>
-    <row r="62" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="62" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -16117,7 +15519,7 @@
         <v>50</v>
       </c>
       <c r="C62" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D62" s="19">
         <v>43917</v>
@@ -16152,7 +15554,7 @@
         <v>43</v>
       </c>
       <c r="T62" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U62" s="22" t="s">
         <v>44</v>
@@ -16164,7 +15566,7 @@
       <c r="X62" s="25"/>
       <c r="Y62" s="25"/>
       <c r="Z62" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA62" s="15" t="s">
         <v>46</v>
@@ -16185,7 +15587,7 @@
       <c r="AM62" s="25"/>
       <c r="AN62" s="25"/>
     </row>
-    <row r="63" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="63" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -16193,7 +15595,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D63" s="19">
         <v>43917</v>
@@ -16228,7 +15630,7 @@
         <v>43</v>
       </c>
       <c r="T63" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U63" s="22" t="s">
         <v>44</v>
@@ -16240,7 +15642,7 @@
       <c r="X63" s="25"/>
       <c r="Y63" s="25"/>
       <c r="Z63" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA63" s="15" t="s">
         <v>46</v>
@@ -16261,7 +15663,7 @@
       <c r="AM63" s="25"/>
       <c r="AN63" s="25"/>
     </row>
-    <row r="64" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="64" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -16269,7 +15671,7 @@
         <v>50</v>
       </c>
       <c r="C64" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D64" s="19">
         <v>43917</v>
@@ -16304,7 +15706,7 @@
         <v>43</v>
       </c>
       <c r="T64" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U64" s="22" t="s">
         <v>44</v>
@@ -16316,7 +15718,7 @@
       <c r="X64" s="25"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA64" s="15" t="s">
         <v>46</v>
@@ -16337,7 +15739,7 @@
       <c r="AM64" s="25"/>
       <c r="AN64" s="25"/>
     </row>
-    <row r="65" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="65" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -16345,7 +15747,7 @@
         <v>50</v>
       </c>
       <c r="C65" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D65" s="19">
         <v>43917</v>
@@ -16380,7 +15782,7 @@
         <v>43</v>
       </c>
       <c r="T65" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U65" s="22" t="s">
         <v>44</v>
@@ -16392,7 +15794,7 @@
       <c r="X65" s="25"/>
       <c r="Y65" s="25"/>
       <c r="Z65" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA65" s="15" t="s">
         <v>46</v>
@@ -16413,7 +15815,7 @@
       <c r="AM65" s="25"/>
       <c r="AN65" s="25"/>
     </row>
-    <row r="66" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="66" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -16421,7 +15823,7 @@
         <v>48</v>
       </c>
       <c r="C66" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D66" s="19">
         <v>43917</v>
@@ -16454,7 +15856,7 @@
         <v>43</v>
       </c>
       <c r="T66" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U66" s="22" t="s">
         <v>44</v>
@@ -16466,7 +15868,7 @@
       <c r="X66" s="25"/>
       <c r="Y66" s="25"/>
       <c r="Z66" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA66" s="15" t="s">
         <v>46</v>
@@ -16487,7 +15889,7 @@
       <c r="AM66" s="25"/>
       <c r="AN66" s="25"/>
     </row>
-    <row r="67" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="67" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -16495,7 +15897,7 @@
         <v>50</v>
       </c>
       <c r="C67" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D67" s="19">
         <v>43917</v>
@@ -16530,7 +15932,7 @@
         <v>43</v>
       </c>
       <c r="T67" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U67" s="22" t="s">
         <v>44</v>
@@ -16542,7 +15944,7 @@
       <c r="X67" s="25"/>
       <c r="Y67" s="25"/>
       <c r="Z67" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA67" s="15" t="s">
         <v>46</v>
@@ -16563,7 +15965,7 @@
       <c r="AM67" s="25"/>
       <c r="AN67" s="25"/>
     </row>
-    <row r="68" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="68" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -16571,7 +15973,7 @@
         <v>50</v>
       </c>
       <c r="C68" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D68" s="19">
         <v>43917</v>
@@ -16606,7 +16008,7 @@
         <v>43</v>
       </c>
       <c r="T68" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U68" s="22" t="s">
         <v>44</v>
@@ -16618,7 +16020,7 @@
       <c r="X68" s="25"/>
       <c r="Y68" s="25"/>
       <c r="Z68" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA68" s="15" t="s">
         <v>46</v>
@@ -16639,7 +16041,7 @@
       <c r="AM68" s="25"/>
       <c r="AN68" s="25"/>
     </row>
-    <row r="69" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="69" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -16647,7 +16049,7 @@
         <v>50</v>
       </c>
       <c r="C69" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D69" s="19">
         <v>43917</v>
@@ -16682,7 +16084,7 @@
         <v>43</v>
       </c>
       <c r="T69" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U69" s="22" t="s">
         <v>44</v>
@@ -16694,7 +16096,7 @@
       <c r="X69" s="25"/>
       <c r="Y69" s="25"/>
       <c r="Z69" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA69" s="15" t="s">
         <v>46</v>
@@ -16715,7 +16117,7 @@
       <c r="AM69" s="25"/>
       <c r="AN69" s="25"/>
     </row>
-    <row r="70" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="70" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -16723,7 +16125,7 @@
         <v>50</v>
       </c>
       <c r="C70" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D70" s="19">
         <v>43917</v>
@@ -16758,7 +16160,7 @@
         <v>43</v>
       </c>
       <c r="T70" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U70" s="22" t="s">
         <v>44</v>
@@ -16770,7 +16172,7 @@
       <c r="X70" s="25"/>
       <c r="Y70" s="25"/>
       <c r="Z70" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA70" s="15" t="s">
         <v>46</v>
@@ -16791,7 +16193,7 @@
       <c r="AM70" s="25"/>
       <c r="AN70" s="25"/>
     </row>
-    <row r="71" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="71" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -16799,7 +16201,7 @@
         <v>50</v>
       </c>
       <c r="C71" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D71" s="19">
         <v>43917</v>
@@ -16834,7 +16236,7 @@
         <v>43</v>
       </c>
       <c r="T71" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U71" s="22" t="s">
         <v>44</v>
@@ -16846,7 +16248,7 @@
       <c r="X71" s="25"/>
       <c r="Y71" s="25"/>
       <c r="Z71" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA71" s="15" t="s">
         <v>46</v>
@@ -16867,7 +16269,7 @@
       <c r="AM71" s="25"/>
       <c r="AN71" s="25"/>
     </row>
-    <row r="72" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="72" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -16875,7 +16277,7 @@
         <v>50</v>
       </c>
       <c r="C72" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D72" s="19">
         <v>43917</v>
@@ -16910,7 +16312,7 @@
         <v>43</v>
       </c>
       <c r="T72" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U72" s="22" t="s">
         <v>44</v>
@@ -16922,7 +16324,7 @@
       <c r="X72" s="25"/>
       <c r="Y72" s="25"/>
       <c r="Z72" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA72" s="15" t="s">
         <v>46</v>
@@ -16943,7 +16345,7 @@
       <c r="AM72" s="25"/>
       <c r="AN72" s="25"/>
     </row>
-    <row r="73" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="73" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -16951,7 +16353,7 @@
         <v>48</v>
       </c>
       <c r="C73" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D73" s="19">
         <v>43917</v>
@@ -16984,7 +16386,7 @@
         <v>43</v>
       </c>
       <c r="T73" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U73" s="22" t="s">
         <v>44</v>
@@ -16996,7 +16398,7 @@
       <c r="X73" s="25"/>
       <c r="Y73" s="25"/>
       <c r="Z73" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA73" s="15" t="s">
         <v>46</v>
@@ -17017,7 +16419,7 @@
       <c r="AM73" s="25"/>
       <c r="AN73" s="25"/>
     </row>
-    <row r="74" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="74" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -17025,7 +16427,7 @@
         <v>50</v>
       </c>
       <c r="C74" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D74" s="19">
         <v>43917</v>
@@ -17060,7 +16462,7 @@
         <v>43</v>
       </c>
       <c r="T74" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U74" s="22" t="s">
         <v>44</v>
@@ -17072,7 +16474,7 @@
       <c r="X74" s="25"/>
       <c r="Y74" s="25"/>
       <c r="Z74" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA74" s="15" t="s">
         <v>46</v>
@@ -17093,7 +16495,7 @@
       <c r="AM74" s="25"/>
       <c r="AN74" s="25"/>
     </row>
-    <row r="75" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="75" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -17101,7 +16503,7 @@
         <v>50</v>
       </c>
       <c r="C75" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D75" s="19">
         <v>43917</v>
@@ -17136,7 +16538,7 @@
         <v>43</v>
       </c>
       <c r="T75" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U75" s="22" t="s">
         <v>44</v>
@@ -17148,7 +16550,7 @@
       <c r="X75" s="25"/>
       <c r="Y75" s="25"/>
       <c r="Z75" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA75" s="15" t="s">
         <v>46</v>
@@ -17169,7 +16571,7 @@
       <c r="AM75" s="25"/>
       <c r="AN75" s="25"/>
     </row>
-    <row r="76" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="76" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -17177,7 +16579,7 @@
         <v>48</v>
       </c>
       <c r="C76" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D76" s="19">
         <v>43917</v>
@@ -17210,7 +16612,7 @@
         <v>43</v>
       </c>
       <c r="T76" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U76" s="22" t="s">
         <v>44</v>
@@ -17222,7 +16624,7 @@
       <c r="X76" s="25"/>
       <c r="Y76" s="25"/>
       <c r="Z76" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA76" s="15" t="s">
         <v>46</v>
@@ -17243,7 +16645,7 @@
       <c r="AM76" s="25"/>
       <c r="AN76" s="25"/>
     </row>
-    <row r="77" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="77" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -17251,7 +16653,7 @@
         <v>50</v>
       </c>
       <c r="C77" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D77" s="19">
         <v>43917</v>
@@ -17286,7 +16688,7 @@
         <v>43</v>
       </c>
       <c r="T77" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U77" s="22" t="s">
         <v>44</v>
@@ -17298,7 +16700,7 @@
       <c r="X77" s="25"/>
       <c r="Y77" s="25"/>
       <c r="Z77" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA77" s="15" t="s">
         <v>46</v>
@@ -17319,7 +16721,7 @@
       <c r="AM77" s="25"/>
       <c r="AN77" s="25"/>
     </row>
-    <row r="78" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="78" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -17327,7 +16729,7 @@
         <v>50</v>
       </c>
       <c r="C78" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D78" s="19">
         <v>43917</v>
@@ -17362,7 +16764,7 @@
         <v>43</v>
       </c>
       <c r="T78" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U78" s="22" t="s">
         <v>44</v>
@@ -17374,7 +16776,7 @@
       <c r="X78" s="25"/>
       <c r="Y78" s="25"/>
       <c r="Z78" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA78" s="15" t="s">
         <v>46</v>
@@ -17395,7 +16797,7 @@
       <c r="AM78" s="25"/>
       <c r="AN78" s="25"/>
     </row>
-    <row r="79" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="79" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -17403,7 +16805,7 @@
         <v>50</v>
       </c>
       <c r="C79" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D79" s="19">
         <v>43917</v>
@@ -17436,7 +16838,7 @@
         <v>43</v>
       </c>
       <c r="T79" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U79" s="22" t="s">
         <v>44</v>
@@ -17448,7 +16850,7 @@
       <c r="X79" s="25"/>
       <c r="Y79" s="25"/>
       <c r="Z79" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA79" s="15" t="s">
         <v>46</v>
@@ -17469,7 +16871,7 @@
       <c r="AM79" s="25"/>
       <c r="AN79" s="25"/>
     </row>
-    <row r="80" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="80" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -17477,7 +16879,7 @@
         <v>50</v>
       </c>
       <c r="C80" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D80" s="19">
         <v>43917</v>
@@ -17510,7 +16912,7 @@
         <v>43</v>
       </c>
       <c r="T80" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U80" s="22" t="s">
         <v>44</v>
@@ -17522,7 +16924,7 @@
       <c r="X80" s="25"/>
       <c r="Y80" s="25"/>
       <c r="Z80" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA80" s="15" t="s">
         <v>46</v>
@@ -17543,7 +16945,7 @@
       <c r="AM80" s="25"/>
       <c r="AN80" s="25"/>
     </row>
-    <row r="81" s="12" customFormat="1" customHeight="1" spans="1:40">
+    <row r="81" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -17551,7 +16953,7 @@
         <v>50</v>
       </c>
       <c r="C81" s="19">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D81" s="19">
         <v>43917</v>
@@ -17584,7 +16986,7 @@
         <v>43</v>
       </c>
       <c r="T81" s="21">
-        <v>43916.3465277778</v>
+        <v>43916.346527777801</v>
       </c>
       <c r="U81" s="22" t="s">
         <v>44</v>
@@ -17596,7 +16998,7 @@
       <c r="X81" s="25"/>
       <c r="Y81" s="25"/>
       <c r="Z81" s="26">
-        <v>43916.41875</v>
+        <v>43916.418749999997</v>
       </c>
       <c r="AA81" s="15" t="s">
         <v>46</v>
@@ -17617,7 +17019,16 @@
       <c r="AM81" s="25"/>
       <c r="AN81" s="25"/>
     </row>
-    <row r="82" customHeight="1" spans="4:13">
+    <row r="82" spans="1:40" ht="15" customHeight="1">
+      <c r="A82" s="13">
+        <v>81</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C82" s="14">
+        <v>43916</v>
+      </c>
       <c r="D82" s="19">
         <v>43917</v>
       </c>
@@ -17641,56 +17052,66 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I45:O45 I46:N46 M31:M44 N40:N44 O31:O39 I47:O50 I31:K44 I2:O30 P2:R50 I51:R1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I45:O45 I46:N46 M31:M44 N40:N44 O31:O39 I47:O50 I31:K44 I2:O30 P2:R50 I51:R1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10 H12:H45 H48:H66 H69:H76 H83:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10 H12:H45 H48:H66 H69:H76 H83:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F82 F2:F81 F83:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G82 G76:G81">
-      <formula1>中国各省市区县数据!$R$2:$R$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G75 G83:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G75 G83:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$R$2:$R$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G76:G82</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.46875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -42118,7 +41539,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="8" t="s">
         <v>142</v>
       </c>
@@ -64977,8 +64398,8 @@
       <c r="AN2908" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200327.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200327.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB44A91-1A4D-4D21-8E2E-1ED230636E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF41D742-6D01-42A3-8136-F83A0E7BCE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10326,8 +10326,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ hh:mm"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -10488,14 +10488,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10801,8 +10801,8 @@
   <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" customHeight="1"/>
@@ -10969,10 +10969,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D2" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>41</v>
@@ -11045,10 +11045,10 @@
         <v>48</v>
       </c>
       <c r="C3" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D3" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -11119,10 +11119,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D4" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>41</v>
@@ -11195,10 +11195,10 @@
         <v>50</v>
       </c>
       <c r="C5" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D5" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>41</v>
@@ -11271,10 +11271,10 @@
         <v>50</v>
       </c>
       <c r="C6" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D6" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -11347,10 +11347,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D7" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>41</v>
@@ -11423,10 +11423,10 @@
         <v>50</v>
       </c>
       <c r="C8" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D8" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -11499,10 +11499,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D9" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -11575,10 +11575,10 @@
         <v>48</v>
       </c>
       <c r="C10" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D10" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -11649,10 +11649,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D11" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>41</v>
@@ -11725,10 +11725,10 @@
         <v>50</v>
       </c>
       <c r="C12" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D12" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -11801,10 +11801,10 @@
         <v>50</v>
       </c>
       <c r="C13" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D13" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>41</v>
@@ -11877,10 +11877,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D14" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
@@ -11953,10 +11953,10 @@
         <v>50</v>
       </c>
       <c r="C15" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D15" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>41</v>
@@ -12029,10 +12029,10 @@
         <v>50</v>
       </c>
       <c r="C16" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D16" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>41</v>
@@ -12105,10 +12105,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D17" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>41</v>
@@ -12181,10 +12181,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D18" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
@@ -12257,10 +12257,10 @@
         <v>48</v>
       </c>
       <c r="C19" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D19" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
@@ -12331,10 +12331,10 @@
         <v>50</v>
       </c>
       <c r="C20" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D20" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>41</v>
@@ -12407,10 +12407,10 @@
         <v>50</v>
       </c>
       <c r="C21" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D21" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>41</v>
@@ -12483,10 +12483,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D22" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>41</v>
@@ -12559,10 +12559,10 @@
         <v>50</v>
       </c>
       <c r="C23" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D23" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>41</v>
@@ -12635,10 +12635,10 @@
         <v>50</v>
       </c>
       <c r="C24" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D24" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>41</v>
@@ -12711,10 +12711,10 @@
         <v>50</v>
       </c>
       <c r="C25" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D25" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>41</v>
@@ -12787,10 +12787,10 @@
         <v>50</v>
       </c>
       <c r="C26" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D26" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>41</v>
@@ -12863,10 +12863,10 @@
         <v>50</v>
       </c>
       <c r="C27" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D27" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>41</v>
@@ -12939,10 +12939,10 @@
         <v>50</v>
       </c>
       <c r="C28" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D28" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>41</v>
@@ -13015,10 +13015,10 @@
         <v>48</v>
       </c>
       <c r="C29" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D29" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>41</v>
@@ -13089,10 +13089,10 @@
         <v>50</v>
       </c>
       <c r="C30" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D30" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>41</v>
@@ -13165,10 +13165,10 @@
         <v>50</v>
       </c>
       <c r="C31" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D31" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>41</v>
@@ -13241,10 +13241,10 @@
         <v>50</v>
       </c>
       <c r="C32" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D32" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>41</v>
@@ -13317,10 +13317,10 @@
         <v>50</v>
       </c>
       <c r="C33" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D33" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>41</v>
@@ -13393,10 +13393,10 @@
         <v>50</v>
       </c>
       <c r="C34" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D34" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>41</v>
@@ -13469,10 +13469,10 @@
         <v>50</v>
       </c>
       <c r="C35" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D35" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>41</v>
@@ -13545,10 +13545,10 @@
         <v>50</v>
       </c>
       <c r="C36" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D36" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>41</v>
@@ -13621,10 +13621,10 @@
         <v>50</v>
       </c>
       <c r="C37" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D37" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>41</v>
@@ -13697,10 +13697,10 @@
         <v>50</v>
       </c>
       <c r="C38" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D38" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>41</v>
@@ -13773,10 +13773,10 @@
         <v>50</v>
       </c>
       <c r="C39" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D39" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>41</v>
@@ -13849,10 +13849,10 @@
         <v>48</v>
       </c>
       <c r="C40" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D40" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>41</v>
@@ -13925,10 +13925,10 @@
         <v>50</v>
       </c>
       <c r="C41" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D41" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>41</v>
@@ -14001,10 +14001,10 @@
         <v>50</v>
       </c>
       <c r="C42" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D42" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>41</v>
@@ -14077,10 +14077,10 @@
         <v>50</v>
       </c>
       <c r="C43" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D43" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>41</v>
@@ -14155,10 +14155,10 @@
         <v>50</v>
       </c>
       <c r="C44" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D44" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>41</v>
@@ -14231,10 +14231,10 @@
         <v>50</v>
       </c>
       <c r="C45" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D45" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>41</v>
@@ -14307,10 +14307,10 @@
         <v>50</v>
       </c>
       <c r="C46" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D46" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>41</v>
@@ -14383,10 +14383,10 @@
         <v>50</v>
       </c>
       <c r="C47" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D47" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>41</v>
@@ -14459,10 +14459,10 @@
         <v>50</v>
       </c>
       <c r="C48" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D48" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>41</v>
@@ -14535,10 +14535,10 @@
         <v>50</v>
       </c>
       <c r="C49" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D49" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>41</v>
@@ -14611,10 +14611,10 @@
         <v>50</v>
       </c>
       <c r="C50" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D50" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>41</v>
@@ -14687,10 +14687,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D51" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>41</v>
@@ -14763,10 +14763,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="19">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D52" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>41</v>
@@ -14837,10 +14837,10 @@
         <v>50</v>
       </c>
       <c r="C53" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D53" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>41</v>
@@ -14913,10 +14913,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D54" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>41</v>
@@ -14989,10 +14989,10 @@
         <v>50</v>
       </c>
       <c r="C55" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D55" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>41</v>
@@ -15065,10 +15065,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D56" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>41</v>
@@ -15141,10 +15141,10 @@
         <v>50</v>
       </c>
       <c r="C57" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D57" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>41</v>
@@ -15217,10 +15217,10 @@
         <v>50</v>
       </c>
       <c r="C58" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D58" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>41</v>
@@ -15293,10 +15293,10 @@
         <v>48</v>
       </c>
       <c r="C59" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D59" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>41</v>
@@ -15367,10 +15367,10 @@
         <v>50</v>
       </c>
       <c r="C60" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D60" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>41</v>
@@ -15443,10 +15443,10 @@
         <v>50</v>
       </c>
       <c r="C61" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D61" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>41</v>
@@ -15519,10 +15519,10 @@
         <v>50</v>
       </c>
       <c r="C62" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D62" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>41</v>
@@ -15595,10 +15595,10 @@
         <v>50</v>
       </c>
       <c r="C63" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D63" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>41</v>
@@ -15671,10 +15671,10 @@
         <v>50</v>
       </c>
       <c r="C64" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D64" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>41</v>
@@ -15747,10 +15747,10 @@
         <v>50</v>
       </c>
       <c r="C65" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D65" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>41</v>
@@ -15823,10 +15823,10 @@
         <v>48</v>
       </c>
       <c r="C66" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D66" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>41</v>
@@ -15897,10 +15897,10 @@
         <v>50</v>
       </c>
       <c r="C67" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D67" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>41</v>
@@ -15973,10 +15973,10 @@
         <v>50</v>
       </c>
       <c r="C68" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D68" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>41</v>
@@ -16049,10 +16049,10 @@
         <v>50</v>
       </c>
       <c r="C69" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D69" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>41</v>
@@ -16125,10 +16125,10 @@
         <v>50</v>
       </c>
       <c r="C70" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D70" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>41</v>
@@ -16201,10 +16201,10 @@
         <v>50</v>
       </c>
       <c r="C71" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D71" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>41</v>
@@ -16277,10 +16277,10 @@
         <v>50</v>
       </c>
       <c r="C72" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D72" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>41</v>
@@ -16353,10 +16353,10 @@
         <v>48</v>
       </c>
       <c r="C73" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D73" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>41</v>
@@ -16427,10 +16427,10 @@
         <v>50</v>
       </c>
       <c r="C74" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D74" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>41</v>
@@ -16503,10 +16503,10 @@
         <v>50</v>
       </c>
       <c r="C75" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D75" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>41</v>
@@ -16579,10 +16579,10 @@
         <v>48</v>
       </c>
       <c r="C76" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D76" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>41</v>
@@ -16653,10 +16653,10 @@
         <v>50</v>
       </c>
       <c r="C77" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D77" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>41</v>
@@ -16729,10 +16729,10 @@
         <v>50</v>
       </c>
       <c r="C78" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D78" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>41</v>
@@ -16805,10 +16805,10 @@
         <v>50</v>
       </c>
       <c r="C79" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D79" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>41</v>
@@ -16879,10 +16879,10 @@
         <v>50</v>
       </c>
       <c r="C80" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D80" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>41</v>
@@ -16953,10 +16953,10 @@
         <v>50</v>
       </c>
       <c r="C81" s="19">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D81" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>41</v>
@@ -17026,11 +17026,11 @@
       <c r="B82" s="27" t="s">
         <v>3305</v>
       </c>
-      <c r="C82" s="14">
-        <v>43916</v>
+      <c r="C82" s="19">
+        <v>43917</v>
       </c>
       <c r="D82" s="19">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>41</v>

--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200327.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200327.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF41D742-6D01-42A3-8136-F83A0E7BCE65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC469D70-F497-4681-A641-AACA633C1462}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10801,8 +10801,8 @@
   <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" customHeight="1"/>
@@ -10989,7 +10989,7 @@
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
       <c r="M2" s="20">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20">
@@ -16601,7 +16601,7 @@
       <c r="K76" s="20"/>
       <c r="L76" s="20"/>
       <c r="M76" s="20">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="20"/>
